--- a/config.xlsx
+++ b/config.xlsx
@@ -20,12 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Обработать</t>
   </si>
   <si>
     <t xml:space="preserve">Построить графики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAWW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAXJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABTX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGL</t>
   </si>
 </sst>
 </file>
@@ -129,10 +165,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
@@ -147,49 +183,85 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -20,48 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">Обработать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Построить графики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAWW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAXJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGL</t>
   </si>
 </sst>
 </file>
@@ -165,10 +126,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.27"/>
@@ -178,90 +139,51 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
